--- a/data/trans_dic/P12A1_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 83,8</t>
+          <t>3,23; 28,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>3,96; 31,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,58; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,06; 100,0</t>
+          <t>3,32; 31,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>2,23; 19,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>2,16; 19,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,47; 82,95</t>
+          <t>2,22; 20,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>1,75; 15,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,38; 100,0</t>
+          <t>3,9; 18,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 19,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 11,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 17,78</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>50,61%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,57; 87,59</t>
+          <t>1,32; 17,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 63,42</t>
+          <t>0,0; 14,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 66,07</t>
+          <t>1,25; 15,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 92,53</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 12,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 82,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 77,54</t>
+          <t>0,0; 11,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 56,84</t>
+          <t>1,68; 14,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 61,52</t>
+          <t>1,66; 10,28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 10,19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 9,94</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,59</t>
+          <t>0,0; 10,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,73</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,96</t>
+          <t>0,0; 14,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 68,71</t>
+          <t>1,42; 14,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,42; 83,6</t>
+          <t>2,77; 12,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,3; 79,58</t>
+          <t>1,79; 10,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 55,16</t>
+          <t>2,67; 12,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,72; 58,3</t>
+          <t>2,65; 11,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 66,97</t>
+          <t>2,36; 9,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 8,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 10,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 10,31</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,6%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48,38; 90,05</t>
+          <t>5,11; 18,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,42; 85,03</t>
+          <t>5,34; 20,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,17; 85,62</t>
+          <t>6,14; 21,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,36; 88,71</t>
+          <t>7,98; 24,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 84,28</t>
+          <t>4,3; 15,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,01; 78,69</t>
+          <t>4,49; 16,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,65; 82,34</t>
+          <t>6,08; 18,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,31; 79,42</t>
+          <t>10,61; 25,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,7; 77,58</t>
+          <t>6,32; 15,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 15,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 17,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 21,72</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,36; 74,89</t>
+          <t>6,8; 23,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,91; 67,99</t>
+          <t>6,17; 21,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,91; 62,16</t>
+          <t>7,18; 24,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 52,03</t>
+          <t>2,75; 15,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 50,43</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 63,71</t>
+          <t>0,0; 12,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 60,56</t>
+          <t>0,0; 13,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,12; 55,73</t>
+          <t>2,09; 18,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,81; 56,16</t>
+          <t>4,03; 13,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 15,54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 16,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 13,54</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 48,85</t>
+          <t>0,0; 12,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,04</t>
+          <t>0,0; 17,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 33,57</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,25</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 45,42</t>
+          <t>0,0; 11,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 28,94</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 25,75</t>
+          <t>0,0; 14,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 33,42</t>
+          <t>1,12; 9,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 11,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 9,95</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,33; 58,3</t>
+          <t>4,79; 10,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 57,21</t>
+          <t>5,71; 12,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,65; 55,86</t>
+          <t>4,36; 9,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,71; 54,02</t>
+          <t>4,74; 11,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,77; 52,26</t>
+          <t>3,99; 8,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,22; 62,31</t>
+          <t>3,44; 7,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,88; 52,41</t>
+          <t>4,47; 9,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,11; 51,94</t>
+          <t>5,83; 10,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,82; 55,86</t>
+          <t>5,07; 8,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 8,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 8,58</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10946</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14294</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16261</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11726</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11430</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8768</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22672</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24488</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11429</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25030</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3458; 30483</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4189; 33574</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4838; 45638</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2985; 26264</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2589; 22978</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2723; 25349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2544; 23038</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9408; 43490</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10035; 44799</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3034; 28727</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9564; 51782</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9686</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8701</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8258</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5920</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8891</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15606</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12573</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17149</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2227; 29821</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21091</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1934; 24392</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 29683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20671</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14020</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2729; 23564</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5539; 34328</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21138</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4367; 28599</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5476; 38765</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9221</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16816</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11383</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12918</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14434</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21875</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15420</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18369</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23655</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17366</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14039</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19476</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2552; 25537</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7326; 32474</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3748; 22859</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5353; 24720</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6283; 27122</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10062; 39270</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5985; 28273</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8890; 34060</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11205; 43021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18618</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19365</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30137</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20614</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17233</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19174</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36754</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39984</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35851</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38539</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9546; 33789</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8608; 32278</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9585; 33200</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15700; 48682</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9382; 34520</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8345; 31088</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10482; 32318</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22570; 54564</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25596; 62298</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23546; 52438</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25178; 56233</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45845; 88969</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19762</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17025</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18022</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11339</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10500</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21540</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20682</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21542</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21839</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10712; 36363</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8144; 28498</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8845; 30014</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4255; 24584</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9087</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12263</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2866; 24765</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11017; 38196</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11078; 35113</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12110; 35816</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10808; 39511</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4828</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5957</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8127</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8716</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8673</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11233</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14005</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15550</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15809</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18527</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12378</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13185</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 30360</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2759; 23892</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2032; 21892</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13434</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2595; 33905</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>67582</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>65235</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>51539</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>78321</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62811</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46311</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>54744</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87475</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>130393</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>111546</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>106283</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>165796</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42730; 95490</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43636; 92604</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>34436; 73418</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49256; 116478</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41284; 88431</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28941; 65967</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36872; 76686</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>64194; 117824</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>97702; 166812</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>82837; 144382</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>80826; 138528</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>128097; 218019</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>